--- a/exiter/etc/클래스설계.xlsx
+++ b/exiter/etc/클래스설계.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goodh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCS\escape\exiter\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="11790" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,319 +21,319 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="105">
   <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌표x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매장명</x:t>
+  </x:si>
+  <x:si>
     <x:t>연락처</x:t>
   </x:si>
   <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌표x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매장명</x:t>
+    <x:t>테마명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
   </x:si>
   <x:si>
     <x:t>난이도</x:t>
   </x:si>
   <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인원수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르</x:t>
+  </x:si>
+  <x:si>
     <x:t>자료형</x:t>
   </x:si>
   <x:si>
     <x:t>qid</x:t>
   </x:si>
   <x:si>
-    <x:t>주소</x:t>
+    <x:t>tid</x:t>
   </x:si>
   <x:si>
     <x:t>변수명</x:t>
   </x:si>
   <x:si>
-    <x:t>tid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
+    <x:t>금액</x:t>
   </x:si>
   <x:si>
     <x:t>좌표y</x:t>
   </x:si>
   <x:si>
-    <x:t>테마명</x:t>
-  </x:si>
-  <x:si>
     <x:t>bid</x:t>
   </x:si>
   <x:si>
-    <x:t>인원수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장르</x:t>
+    <x:t>Answer 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company(사업자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation(예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question(질문)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment(댓글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴유무 true / false</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A(관리자) / U(일반회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardComment 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uGrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>double</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>char</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tImage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uCheck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boolean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comTel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board 테이블 키값(FK), 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user 테이블 키값(FK), 작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 테이블 키값(FK), 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company 테이블 키값(FK), 작성자</x:t>
   </x:si>
   <x:si>
     <x:t>Board(게시글)</x:t>
   </x:si>
   <x:si>
-    <x:t>유저 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uGrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>double</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>char</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bcDef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comTel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boolean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uCheck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thema(테마)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴유무 true / false</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment(댓글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardComment 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값(FK), 게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값(FK), 작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값(FK), 질문</x:t>
-  </x:si>
-  <x:si>
     <x:t>User(회원)</x:t>
   </x:si>
   <x:si>
     <x:t>tCategory</x:t>
   </x:si>
   <x:si>
+    <x:t>comPasswd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자 비밀번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>bCategory</x:t>
   </x:si>
   <x:si>
+    <x:t>User 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer(답변)</x:t>
+  </x:si>
+  <x:si>
     <x:t>comAddress</x:t>
   </x:si>
   <x:si>
-    <x:t>User 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer(답변)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comPasswd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user 테이블 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thema 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation(예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question(질문)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company(사업자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 테이블 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A(관리자) / U(일반회원)</x:t>
+    <x:t>Theme(테마)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theme 테이블 키값</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -518,6 +518,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -600,6 +601,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -634,6 +636,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -678,6 +681,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -721,6 +725,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -805,6 +810,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -825,6 +831,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -855,6 +862,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1164,8 +1172,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:P38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N11" activeCellId="0" sqref="N11:P11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L20" activeCellId="0" sqref="L20:L20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1186,136 +1194,136 @@
   <x:sheetData>
     <x:row r="2" spans="2:16" ht="22" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C2" s="12"/>
       <x:c r="D2" s="12"/>
       <x:c r="E2" s="3"/>
       <x:c r="F2" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G2" s="11"/>
       <x:c r="H2" s="11"/>
       <x:c r="J2" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K2" s="12"/>
       <x:c r="L2" s="12"/>
       <x:c r="N2" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O2" s="12"/>
       <x:c r="P2" s="12"/>
     </x:row>
     <x:row r="3" spans="2:16" ht="22" customHeight="1">
       <x:c r="B3" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J3" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K3" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L3" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N3" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O3" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P3" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:16" ht="22" customHeight="1">
       <x:c r="B4" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H4" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J4" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K4" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L4" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N4" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O4" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P4" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:16" ht="22" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G5" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H5" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K5" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L5" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N5" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O5" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P5" s="4" t="s">
         <x:v>1</x:v>
@@ -1323,243 +1331,243 @@
     </x:row>
     <x:row r="6" spans="2:16" ht="22" customHeight="1">
       <x:c r="B6" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J6" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K6" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L6" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N6" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O6" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P6" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:16" ht="22" customHeight="1">
       <x:c r="B7" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J7" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="K7" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="L7" s="4" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H7" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J7" s="4" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="K7" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="L7" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N7" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="O7" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P7" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:16" ht="22" customHeight="1">
       <x:c r="B8" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G8" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H8" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J8" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="K8" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L8" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N8" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P8" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:16" ht="22" customHeight="1">
       <x:c r="B9" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G9" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J9" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K9" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N9" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O9" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:8" ht="22" customHeight="1">
       <x:c r="B10" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:16" s="1" customFormat="1" ht="22" customHeight="1">
       <x:c r="B11" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J11" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K11" s="12"/>
       <x:c r="L11" s="12"/>
       <x:c r="N11" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O11" s="12"/>
       <x:c r="P11" s="12"/>
     </x:row>
     <x:row r="12" spans="2:16" ht="22" customHeight="1">
       <x:c r="B12" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E12" s="3"/>
       <x:c r="F12" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H12" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J12" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K12" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O12" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P12" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:16" ht="22" customHeight="1">
@@ -1568,331 +1576,331 @@
       <x:c r="D13" s="5"/>
       <x:c r="E13" s="3"/>
       <x:c r="F13" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G13" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H13" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J13" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K13" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L13" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N13" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O13" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P13" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:16" ht="22" customHeight="1">
       <x:c r="B14" s="11" t="s">
-        <x:v>102</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C14" s="11"/>
       <x:c r="D14" s="11"/>
       <x:c r="E14" s="3"/>
       <x:c r="F14" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G14" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H14" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J14" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K14" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L14" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N14" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O14" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P14" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:16" ht="22" customHeight="1">
       <x:c r="B15" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E15" s="3"/>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="3"/>
       <x:c r="H15" s="3"/>
       <x:c r="J15" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K15" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L15" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N15" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O15" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P15" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:16" ht="22" customHeight="1">
       <x:c r="B16" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G16" s="12"/>
       <x:c r="H16" s="12"/>
       <x:c r="J16" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K16" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L16" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N16" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O16" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P16" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:16" ht="22" customHeight="1">
       <x:c r="B17" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H17" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J17" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K17" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L17" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N17" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O17" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P17" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:8" ht="22" customHeight="1">
       <x:c r="B18" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E18" s="3"/>
       <x:c r="F18" s="4" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:8" ht="22" customHeight="1">
       <x:c r="B19" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E19" s="3"/>
       <x:c r="F19" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8" ht="22" customHeight="1">
       <x:c r="B20" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E20" s="3"/>
       <x:c r="F20" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G20" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:8" ht="22" customHeight="1">
       <x:c r="B21" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E21" s="3"/>
       <x:c r="F21" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H21" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:8" ht="22" customHeight="1">
       <x:c r="B22" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="3"/>
       <x:c r="F22" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H22" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:8" ht="22" customHeight="1">
       <x:c r="B23" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E23" s="3"/>
       <x:c r="F23" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="22" customHeight="1">
       <x:c r="B24" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E24" s="3"/>
       <x:c r="F24" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H24" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:12" ht="22" customHeight="1">
       <x:c r="B25" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D25" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E25" s="3"/>
       <x:c r="F25" s="3"/>
